--- a/5. Pivot.xlsx
+++ b/5. Pivot.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://binusianorg-my.sharepoint.com/personal/jeremy_loa_binus_edu/Documents/Qualification/11. Data Warehouse/Qualif Data Warehouse JM22-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="8_{23D87C0F-F9F7-45F2-A886-F60E78B3EE6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D15C42E-9B8F-49CE-988D-688DD64DF7E0}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="8_{23D87C0F-F9F7-45F2-A886-F60E78B3EE6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FDDD64A-6C58-4EBE-8D80-F13431C1C3FF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{6581951E-FD2A-419E-8CB5-3CA75E5C9362}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6581951E-FD2A-419E-8CB5-3CA75E5C9362}"/>
   </bookViews>
   <sheets>
-    <sheet name="SalesFact" sheetId="1" r:id="rId1"/>
-    <sheet name="PurchaseFact" sheetId="3" r:id="rId2"/>
-    <sheet name="SubscriptionFact" sheetId="4" r:id="rId3"/>
-    <sheet name="ServiceFact" sheetId="5" r:id="rId4"/>
+    <sheet name="SalesFact" sheetId="7" r:id="rId1"/>
+    <sheet name="PurhcaseFact" sheetId="8" r:id="rId2"/>
+    <sheet name="SubscriptionFact" sheetId="9" r:id="rId3"/>
+    <sheet name="ServiceFact" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="16" r:id="rId5"/>
-    <pivotCache cacheId="68" r:id="rId6"/>
-    <pivotCache cacheId="102" r:id="rId7"/>
-    <pivotCache cacheId="127" r:id="rId8"/>
+    <pivotCache cacheId="17" r:id="rId5"/>
+    <pivotCache cacheId="25" r:id="rId6"/>
+    <pivotCache cacheId="36" r:id="rId7"/>
+    <pivotCache cacheId="47" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -48,6 +48,22 @@
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{BAE679DD-0C99-4B12-B058-4794734FC0E7}" odcFile="C:\Users\jerem\Documents\My Data Sources\CubeHospitalIE HospitalIE.odc" keepAlive="1" name="CubeHospitalIE HospitalIE" type="5" refreshedVersion="8" background="1">
     <dbPr connection="Provider=MSOLAP.8;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=CubeHospitalIE;Data Source=314G;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" command="HospitalIE" commandType="1"/>
+    <olapPr sendLocale="1" rowDrillCount="1000"/>
+  </connection>
+  <connection id="2" xr16:uid="{56811F7F-065E-436C-899E-827E093C17DD}" odcFile="C:\Users\jerem\Documents\My Data Sources\PurchaseFact.odc" keepAlive="1" name="PurchaseFact" type="5" refreshedVersion="8" background="1">
+    <dbPr connection="Provider=MSOLAP.8;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=CubeHospitalIE;Data Source=314G;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" command="PurchaseFact" commandType="1"/>
+    <olapPr sendLocale="1" rowDrillCount="1000"/>
+  </connection>
+  <connection id="3" xr16:uid="{B38CA53D-B1F0-402C-999F-B833F0C991A8}" odcFile="C:\Users\jerem\Documents\My Data Sources\SalesFact.odc" keepAlive="1" name="SalesFact" type="5" refreshedVersion="8" background="1">
+    <dbPr connection="Provider=MSOLAP.8;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=CubeHospitalIE;Data Source=314G;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" command="SalesFact" commandType="1"/>
+    <olapPr sendLocale="1" rowDrillCount="1000"/>
+  </connection>
+  <connection id="4" xr16:uid="{FA886F14-82E8-4934-BB18-9A9B927EE0FE}" odcFile="C:\Users\jerem\Documents\My Data Sources\ServiceFact.odc" keepAlive="1" name="ServiceFact" type="5" refreshedVersion="8" background="1">
+    <dbPr connection="Provider=MSOLAP.8;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=CubeHospitalIE;Data Source=314G;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" command="ServiceFact" commandType="1"/>
+    <olapPr sendLocale="1" rowDrillCount="1000"/>
+  </connection>
+  <connection id="5" xr16:uid="{E319F93C-C88F-460F-8FF4-84638557AFB4}" odcFile="C:\Users\jerem\Documents\My Data Sources\SubscriptionFact.odc" keepAlive="1" name="SubscriptionFact" type="5" refreshedVersion="8" background="1">
+    <dbPr connection="Provider=MSOLAP.8;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=CubeHospitalIE;Data Source=314G;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" command="SubscriptionFact" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
   </connection>
 </connections>
@@ -6153,48 +6169,29 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Jeremy Loa" refreshedDate="44815.786593750003" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{85DBBA04-0CC7-41A1-A640-E84402B71A71}">
-  <cacheSource type="external" connectionId="1"/>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Jeremy Loa" refreshedDate="44817.735255555555" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{0F0F79D3-BCC4-47DB-A37A-796FC8A535E6}">
+  <cacheSource type="external" connectionId="3"/>
   <cacheFields count="3">
-    <cacheField name="[Measures].[Total Medicine Sold]" caption="Total Medicine Sold" numFmtId="0" hierarchy="47" level="32767"/>
-    <cacheField name="[Measures].[Total Sales Earning]" caption="Total Sales Earning" numFmtId="0" hierarchy="46" level="32767"/>
-    <cacheField name="[Customer Dimension].[Customer Gender].[Customer Gender]" caption="Customer Gender" numFmtId="0" hierarchy="8" level="1">
+    <cacheField name="[Customer Dimension].[Customer Gender].[Customer Gender]" caption="Customer Gender" numFmtId="0" hierarchy="2" level="1">
       <sharedItems count="2">
         <s v="[Customer Dimension].[Customer Gender].&amp;[F]" c="F"/>
         <s v="[Customer Dimension].[Customer Gender].&amp;[M]" c="M"/>
       </sharedItems>
     </cacheField>
+    <cacheField name="[Measures].[Total Medicine Sold]" caption="Total Medicine Sold" numFmtId="0" hierarchy="20" level="32767"/>
+    <cacheField name="[Measures].[Total Sales Earning]" caption="Total Sales Earning" numFmtId="0" hierarchy="19" level="32767"/>
   </cacheFields>
-  <cacheHierarchies count="55">
-    <cacheHierarchy uniqueName="[Benefit Dimension].[Benefit Code]" caption="Benefit Code" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Benefit Dimension].[Benefit Code].[All]" allUniqueName="[Benefit Dimension].[Benefit Code].[All]" dimensionUniqueName="[Benefit Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Benefit Dimension].[Benefit ID]" caption="Benefit ID" attribute="1" defaultMemberUniqueName="[Benefit Dimension].[Benefit ID].[All]" allUniqueName="[Benefit Dimension].[Benefit ID].[All]" dimensionUniqueName="[Benefit Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Benefit Dimension].[Benefit Name]" caption="Benefit Name" attribute="1" defaultMemberUniqueName="[Benefit Dimension].[Benefit Name].[All]" allUniqueName="[Benefit Dimension].[Benefit Name].[All]" dimensionUniqueName="[Benefit Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Benefit Dimension].[Benefit Price]" caption="Benefit Price" attribute="1" defaultMemberUniqueName="[Benefit Dimension].[Benefit Price].[All]" allUniqueName="[Benefit Dimension].[Benefit Price].[All]" dimensionUniqueName="[Benefit Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Benefit Dimension].[Valid From]" caption="Valid From" attribute="1" defaultMemberUniqueName="[Benefit Dimension].[Valid From].[All]" allUniqueName="[Benefit Dimension].[Valid From].[All]" dimensionUniqueName="[Benefit Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Benefit Dimension].[Valid To]" caption="Valid To" attribute="1" defaultMemberUniqueName="[Benefit Dimension].[Valid To].[All]" allUniqueName="[Benefit Dimension].[Valid To].[All]" dimensionUniqueName="[Benefit Dimension]" displayFolder="" count="0" unbalanced="0"/>
+  <cacheHierarchies count="22">
     <cacheHierarchy uniqueName="[Customer Dimension].[Customer Address]" caption="Customer Address" attribute="1" defaultMemberUniqueName="[Customer Dimension].[Customer Address].[All]" allUniqueName="[Customer Dimension].[Customer Address].[All]" dimensionUniqueName="[Customer Dimension]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Customer Dimension].[Customer Code]" caption="Customer Code" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Customer Dimension].[Customer Code].[All]" allUniqueName="[Customer Dimension].[Customer Code].[All]" dimensionUniqueName="[Customer Dimension]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Customer Dimension].[Customer Gender]" caption="Customer Gender" attribute="1" defaultMemberUniqueName="[Customer Dimension].[Customer Gender].[All]" allUniqueName="[Customer Dimension].[Customer Gender].[All]" dimensionUniqueName="[Customer Dimension]" displayFolder="" count="2" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
+        <fieldUsage x="0"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Customer Dimension].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[Customer Dimension].[Customer ID].[All]" allUniqueName="[Customer Dimension].[Customer ID].[All]" dimensionUniqueName="[Customer Dimension]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Customer Dimension].[Customer Name]" caption="Customer Name" attribute="1" defaultMemberUniqueName="[Customer Dimension].[Customer Name].[All]" allUniqueName="[Customer Dimension].[Customer Name].[All]" dimensionUniqueName="[Customer Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Distributor Dimension].[Distributor Address]" caption="Distributor Address" attribute="1" defaultMemberUniqueName="[Distributor Dimension].[Distributor Address].[All]" allUniqueName="[Distributor Dimension].[Distributor Address].[All]" dimensionUniqueName="[Distributor Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Distributor Dimension].[Distributor Code]" caption="Distributor Code" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Distributor Dimension].[Distributor Code].[All]" allUniqueName="[Distributor Dimension].[Distributor Code].[All]" dimensionUniqueName="[Distributor Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Distributor Dimension].[Distributor ID]" caption="Distributor ID" attribute="1" defaultMemberUniqueName="[Distributor Dimension].[Distributor ID].[All]" allUniqueName="[Distributor Dimension].[Distributor ID].[All]" dimensionUniqueName="[Distributor Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Distributor Dimension].[Distributor Name]" caption="Distributor Name" attribute="1" defaultMemberUniqueName="[Distributor Dimension].[Distributor Name].[All]" allUniqueName="[Distributor Dimension].[Distributor Name].[All]" dimensionUniqueName="[Distributor Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Distributor Dimension].[Distributor Phone]" caption="Distributor Phone" attribute="1" defaultMemberUniqueName="[Distributor Dimension].[Distributor Phone].[All]" allUniqueName="[Distributor Dimension].[Distributor Phone].[All]" dimensionUniqueName="[Distributor Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Doctor Dimension].[Doctor Address]" caption="Doctor Address" attribute="1" defaultMemberUniqueName="[Doctor Dimension].[Doctor Address].[All]" allUniqueName="[Doctor Dimension].[Doctor Address].[All]" dimensionUniqueName="[Doctor Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Doctor Dimension].[Doctor Code]" caption="Doctor Code" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Doctor Dimension].[Doctor Code].[All]" allUniqueName="[Doctor Dimension].[Doctor Code].[All]" dimensionUniqueName="[Doctor Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Doctor Dimension].[Doctor DOB]" caption="Doctor DOB" attribute="1" defaultMemberUniqueName="[Doctor Dimension].[Doctor DOB].[All]" allUniqueName="[Doctor Dimension].[Doctor DOB].[All]" dimensionUniqueName="[Doctor Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Doctor Dimension].[Doctor ID]" caption="Doctor ID" attribute="1" defaultMemberUniqueName="[Doctor Dimension].[Doctor ID].[All]" allUniqueName="[Doctor Dimension].[Doctor ID].[All]" dimensionUniqueName="[Doctor Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Doctor Dimension].[Doctor Name]" caption="Doctor Name" attribute="1" defaultMemberUniqueName="[Doctor Dimension].[Doctor Name].[All]" allUniqueName="[Doctor Dimension].[Doctor Name].[All]" dimensionUniqueName="[Doctor Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Doctor Dimension].[Doctor Salary]" caption="Doctor Salary" attribute="1" defaultMemberUniqueName="[Doctor Dimension].[Doctor Salary].[All]" allUniqueName="[Doctor Dimension].[Doctor Salary].[All]" dimensionUniqueName="[Doctor Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Doctor Dimension].[Valid From]" caption="Valid From" attribute="1" defaultMemberUniqueName="[Doctor Dimension].[Valid From].[All]" allUniqueName="[Doctor Dimension].[Valid From].[All]" dimensionUniqueName="[Doctor Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Doctor Dimension].[Valid To]" caption="Valid To" attribute="1" defaultMemberUniqueName="[Doctor Dimension].[Valid To].[All]" allUniqueName="[Doctor Dimension].[Valid To].[All]" dimensionUniqueName="[Doctor Dimension]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Medicine Dimension].[Medicine Buying Price]" caption="Medicine Buying Price" attribute="1" defaultMemberUniqueName="[Medicine Dimension].[Medicine Buying Price].[All]" allUniqueName="[Medicine Dimension].[Medicine Buying Price].[All]" dimensionUniqueName="[Medicine Dimension]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Medicine Dimension].[Medicine Code]" caption="Medicine Code" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Medicine Dimension].[Medicine Code].[All]" allUniqueName="[Medicine Dimension].[Medicine Code].[All]" dimensionUniqueName="[Medicine Dimension]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Medicine Dimension].[Medicine Expired Date]" caption="Medicine Expired Date" attribute="1" defaultMemberUniqueName="[Medicine Dimension].[Medicine Expired Date].[All]" allUniqueName="[Medicine Dimension].[Medicine Expired Date].[All]" dimensionUniqueName="[Medicine Dimension]" displayFolder="" count="0" unbalanced="0"/>
@@ -6209,62 +6206,32 @@
     <cacheHierarchy uniqueName="[Staff Dimension].[Staff Salary]" caption="Staff Salary" attribute="1" defaultMemberUniqueName="[Staff Dimension].[Staff Salary].[All]" allUniqueName="[Staff Dimension].[Staff Salary].[All]" dimensionUniqueName="[Staff Dimension]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Staff Dimension].[Valid From]" caption="Valid From" attribute="1" defaultMemberUniqueName="[Staff Dimension].[Valid From].[All]" allUniqueName="[Staff Dimension].[Valid From].[All]" dimensionUniqueName="[Staff Dimension]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Staff Dimension].[Valid To]" caption="Valid To" attribute="1" defaultMemberUniqueName="[Staff Dimension].[Valid To].[All]" allUniqueName="[Staff Dimension].[Valid To].[All]" dimensionUniqueName="[Staff Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Treatment Dimension].[Treatment Code]" caption="Treatment Code" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Treatment Dimension].[Treatment Code].[All]" allUniqueName="[Treatment Dimension].[Treatment Code].[All]" dimensionUniqueName="[Treatment Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Treatment Dimension].[Treatment ID]" caption="Treatment ID" attribute="1" defaultMemberUniqueName="[Treatment Dimension].[Treatment ID].[All]" allUniqueName="[Treatment Dimension].[Treatment ID].[All]" dimensionUniqueName="[Treatment Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Treatment Dimension].[Treatment Name]" caption="Treatment Name" attribute="1" defaultMemberUniqueName="[Treatment Dimension].[Treatment Name].[All]" allUniqueName="[Treatment Dimension].[Treatment Name].[All]" dimensionUniqueName="[Treatment Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Treatment Dimension].[Treatment Price]" caption="Treatment Price" attribute="1" defaultMemberUniqueName="[Treatment Dimension].[Treatment Price].[All]" allUniqueName="[Treatment Dimension].[Treatment Price].[All]" dimensionUniqueName="[Treatment Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Treatment Dimension].[Valid From]" caption="Valid From" attribute="1" defaultMemberUniqueName="[Treatment Dimension].[Valid From].[All]" allUniqueName="[Treatment Dimension].[Valid From].[All]" dimensionUniqueName="[Treatment Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Treatment Dimension].[Valid To]" caption="Valid To" attribute="1" defaultMemberUniqueName="[Treatment Dimension].[Valid To].[All]" allUniqueName="[Treatment Dimension].[Valid To].[All]" dimensionUniqueName="[Treatment Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Total Purchase Cost]" caption="Total Purchase Cost" measure="1" displayFolder="" measureGroup="Purchase Fact" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Purchase Fact Count]" caption="Purchase Fact Count" measure="1" displayFolder="" measureGroup="Purchase Fact" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Total Sales Earning]" caption="Total Sales Earning" measure="1" displayFolder="" measureGroup="Sales Fact" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Total Medicine Sold]" caption="Total Medicine Sold" measure="1" displayFolder="" measureGroup="Sales Fact" count="0" oneField="1">
       <fieldsUsage count="1">
         <fieldUsage x="1"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Total Medicine Sold]" caption="Total Medicine Sold" measure="1" displayFolder="" measureGroup="Sales Fact" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Sales Fact Count]" caption="Sales Fact Count" measure="1" displayFolder="" measureGroup="Sales Fact" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Total Service Earning]" caption="Total Service Earning" measure="1" displayFolder="" measureGroup="Service Fact" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Total Doctors]" caption="Total Doctors" measure="1" displayFolder="" measureGroup="Service Fact" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Service Fact Count]" caption="Service Fact Count" measure="1" displayFolder="" measureGroup="Service Fact" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Total Subscription Earning]" caption="Total Subscription Earning" measure="1" displayFolder="" measureGroup="Subscription Fact" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Total Subscriber Count]" caption="Total Subscriber Count" measure="1" displayFolder="" measureGroup="Subscription Fact" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Subscription Fact Count]" caption="Subscription Fact Count" measure="1" displayFolder="" measureGroup="Subscription Fact" count="0"/>
   </cacheHierarchies>
   <kpis count="0"/>
-  <dimensions count="8">
-    <dimension name="Benefit Dimension" uniqueName="[Benefit Dimension]" caption="Benefit Dimension"/>
+  <dimensions count="4">
     <dimension name="Customer Dimension" uniqueName="[Customer Dimension]" caption="Customer Dimension"/>
-    <dimension name="Distributor Dimension" uniqueName="[Distributor Dimension]" caption="Distributor Dimension"/>
-    <dimension name="Doctor Dimension" uniqueName="[Doctor Dimension]" caption="Doctor Dimension"/>
     <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
     <dimension name="Medicine Dimension" uniqueName="[Medicine Dimension]" caption="Medicine Dimension"/>
     <dimension name="Staff Dimension" uniqueName="[Staff Dimension]" caption="Staff Dimension"/>
-    <dimension name="Treatment Dimension" uniqueName="[Treatment Dimension]" caption="Treatment Dimension"/>
   </dimensions>
-  <measureGroups count="4">
-    <measureGroup name="Purchase Fact" caption="Purchase Fact"/>
+  <measureGroups count="1">
     <measureGroup name="Sales Fact" caption="Sales Fact"/>
-    <measureGroup name="Service Fact" caption="Service Fact"/>
-    <measureGroup name="Subscription Fact" caption="Subscription Fact"/>
   </measureGroups>
-  <maps count="12">
+  <maps count="3">
+    <map measureGroup="0" dimension="0"/>
     <map measureGroup="0" dimension="2"/>
-    <map measureGroup="0" dimension="5"/>
-    <map measureGroup="0" dimension="6"/>
-    <map measureGroup="1" dimension="1"/>
-    <map measureGroup="1" dimension="5"/>
-    <map measureGroup="1" dimension="6"/>
-    <map measureGroup="2" dimension="1"/>
-    <map measureGroup="2" dimension="3"/>
-    <map measureGroup="2" dimension="7"/>
-    <map measureGroup="3" dimension="0"/>
-    <map measureGroup="3" dimension="1"/>
-    <map measureGroup="3" dimension="6"/>
+    <map measureGroup="0" dimension="3"/>
   </maps>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -6275,11 +6242,10 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Jeremy Loa" refreshedDate="44815.788144328704" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{6807FA50-E78C-4C72-9BE4-A260DF0B43ED}">
-  <cacheSource type="external" connectionId="1"/>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Jeremy Loa" refreshedDate="44817.735837384258" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{33100BC3-B9E9-4E7D-B8EF-C64E79F61CFA}">
+  <cacheSource type="external" connectionId="2"/>
   <cacheFields count="2">
-    <cacheField name="[Measures].[Total Purchase Cost]" caption="Total Purchase Cost" numFmtId="0" hierarchy="44" level="32767"/>
-    <cacheField name="[Staff Dimension].[Staff ID].[Staff ID]" caption="Staff ID" numFmtId="0" hierarchy="33" level="1">
+    <cacheField name="[Staff Dimension].[Staff ID].[Staff ID]" caption="Staff ID" numFmtId="0" hierarchy="14" level="1">
       <sharedItems count="1000">
         <s v="[Staff Dimension].[Staff ID].&amp;[1]" c="1"/>
         <s v="[Staff Dimension].[Staff ID].&amp;[10]" c="10"/>
@@ -7283,32 +7249,14 @@
         <s v="[Staff Dimension].[Staff ID].&amp;[999]" c="999"/>
       </sharedItems>
     </cacheField>
+    <cacheField name="[Measures].[Total Purchase Cost]" caption="Total Purchase Cost" numFmtId="0" hierarchy="19" level="32767"/>
   </cacheFields>
-  <cacheHierarchies count="55">
-    <cacheHierarchy uniqueName="[Benefit Dimension].[Benefit Code]" caption="Benefit Code" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Benefit Dimension].[Benefit Code].[All]" allUniqueName="[Benefit Dimension].[Benefit Code].[All]" dimensionUniqueName="[Benefit Dimension]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Benefit Dimension].[Benefit ID]" caption="Benefit ID" attribute="1" defaultMemberUniqueName="[Benefit Dimension].[Benefit ID].[All]" allUniqueName="[Benefit Dimension].[Benefit ID].[All]" dimensionUniqueName="[Benefit Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Benefit Dimension].[Benefit Name]" caption="Benefit Name" attribute="1" defaultMemberUniqueName="[Benefit Dimension].[Benefit Name].[All]" allUniqueName="[Benefit Dimension].[Benefit Name].[All]" dimensionUniqueName="[Benefit Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Benefit Dimension].[Benefit Price]" caption="Benefit Price" attribute="1" defaultMemberUniqueName="[Benefit Dimension].[Benefit Price].[All]" allUniqueName="[Benefit Dimension].[Benefit Price].[All]" dimensionUniqueName="[Benefit Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Benefit Dimension].[Valid From]" caption="Valid From" attribute="1" defaultMemberUniqueName="[Benefit Dimension].[Valid From].[All]" allUniqueName="[Benefit Dimension].[Valid From].[All]" dimensionUniqueName="[Benefit Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Benefit Dimension].[Valid To]" caption="Valid To" attribute="1" defaultMemberUniqueName="[Benefit Dimension].[Valid To].[All]" allUniqueName="[Benefit Dimension].[Valid To].[All]" dimensionUniqueName="[Benefit Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Customer Dimension].[Customer Address]" caption="Customer Address" attribute="1" defaultMemberUniqueName="[Customer Dimension].[Customer Address].[All]" allUniqueName="[Customer Dimension].[Customer Address].[All]" dimensionUniqueName="[Customer Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Customer Dimension].[Customer Code]" caption="Customer Code" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Customer Dimension].[Customer Code].[All]" allUniqueName="[Customer Dimension].[Customer Code].[All]" dimensionUniqueName="[Customer Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Customer Dimension].[Customer Gender]" caption="Customer Gender" attribute="1" defaultMemberUniqueName="[Customer Dimension].[Customer Gender].[All]" allUniqueName="[Customer Dimension].[Customer Gender].[All]" dimensionUniqueName="[Customer Dimension]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Customer Dimension].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[Customer Dimension].[Customer ID].[All]" allUniqueName="[Customer Dimension].[Customer ID].[All]" dimensionUniqueName="[Customer Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Customer Dimension].[Customer Name]" caption="Customer Name" attribute="1" defaultMemberUniqueName="[Customer Dimension].[Customer Name].[All]" allUniqueName="[Customer Dimension].[Customer Name].[All]" dimensionUniqueName="[Customer Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Distributor Dimension].[Distributor Address]" caption="Distributor Address" attribute="1" defaultMemberUniqueName="[Distributor Dimension].[Distributor Address].[All]" allUniqueName="[Distributor Dimension].[Distributor Address].[All]" dimensionUniqueName="[Distributor Dimension]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Distributor Dimension].[Distributor Code]" caption="Distributor Code" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Distributor Dimension].[Distributor Code].[All]" allUniqueName="[Distributor Dimension].[Distributor Code].[All]" dimensionUniqueName="[Distributor Dimension]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Distributor Dimension].[Distributor ID]" caption="Distributor ID" attribute="1" defaultMemberUniqueName="[Distributor Dimension].[Distributor ID].[All]" allUniqueName="[Distributor Dimension].[Distributor ID].[All]" dimensionUniqueName="[Distributor Dimension]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Distributor Dimension].[Distributor Name]" caption="Distributor Name" attribute="1" defaultMemberUniqueName="[Distributor Dimension].[Distributor Name].[All]" allUniqueName="[Distributor Dimension].[Distributor Name].[All]" dimensionUniqueName="[Distributor Dimension]" displayFolder="" count="2" unbalanced="0"/>
+  <cacheHierarchies count="21">
+    <cacheHierarchy uniqueName="[Distributor Dimension].[Distributor Address]" caption="Distributor Address" attribute="1" defaultMemberUniqueName="[Distributor Dimension].[Distributor Address].[All]" allUniqueName="[Distributor Dimension].[Distributor Address].[All]" dimensionUniqueName="[Distributor Dimension]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Distributor Dimension].[Distributor Code]" caption="Distributor Code" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Distributor Dimension].[Distributor Code].[All]" allUniqueName="[Distributor Dimension].[Distributor Code].[All]" dimensionUniqueName="[Distributor Dimension]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Distributor Dimension].[Distributor ID]" caption="Distributor ID" attribute="1" defaultMemberUniqueName="[Distributor Dimension].[Distributor ID].[All]" allUniqueName="[Distributor Dimension].[Distributor ID].[All]" dimensionUniqueName="[Distributor Dimension]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Distributor Dimension].[Distributor Name]" caption="Distributor Name" attribute="1" defaultMemberUniqueName="[Distributor Dimension].[Distributor Name].[All]" allUniqueName="[Distributor Dimension].[Distributor Name].[All]" dimensionUniqueName="[Distributor Dimension]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Distributor Dimension].[Distributor Phone]" caption="Distributor Phone" attribute="1" defaultMemberUniqueName="[Distributor Dimension].[Distributor Phone].[All]" allUniqueName="[Distributor Dimension].[Distributor Phone].[All]" dimensionUniqueName="[Distributor Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Doctor Dimension].[Doctor Address]" caption="Doctor Address" attribute="1" defaultMemberUniqueName="[Doctor Dimension].[Doctor Address].[All]" allUniqueName="[Doctor Dimension].[Doctor Address].[All]" dimensionUniqueName="[Doctor Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Doctor Dimension].[Doctor Code]" caption="Doctor Code" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Doctor Dimension].[Doctor Code].[All]" allUniqueName="[Doctor Dimension].[Doctor Code].[All]" dimensionUniqueName="[Doctor Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Doctor Dimension].[Doctor DOB]" caption="Doctor DOB" attribute="1" defaultMemberUniqueName="[Doctor Dimension].[Doctor DOB].[All]" allUniqueName="[Doctor Dimension].[Doctor DOB].[All]" dimensionUniqueName="[Doctor Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Doctor Dimension].[Doctor ID]" caption="Doctor ID" attribute="1" defaultMemberUniqueName="[Doctor Dimension].[Doctor ID].[All]" allUniqueName="[Doctor Dimension].[Doctor ID].[All]" dimensionUniqueName="[Doctor Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Doctor Dimension].[Doctor Name]" caption="Doctor Name" attribute="1" defaultMemberUniqueName="[Doctor Dimension].[Doctor Name].[All]" allUniqueName="[Doctor Dimension].[Doctor Name].[All]" dimensionUniqueName="[Doctor Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Doctor Dimension].[Doctor Salary]" caption="Doctor Salary" attribute="1" defaultMemberUniqueName="[Doctor Dimension].[Doctor Salary].[All]" allUniqueName="[Doctor Dimension].[Doctor Salary].[All]" dimensionUniqueName="[Doctor Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Doctor Dimension].[Valid From]" caption="Valid From" attribute="1" defaultMemberUniqueName="[Doctor Dimension].[Valid From].[All]" allUniqueName="[Doctor Dimension].[Valid From].[All]" dimensionUniqueName="[Doctor Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Doctor Dimension].[Valid To]" caption="Valid To" attribute="1" defaultMemberUniqueName="[Doctor Dimension].[Valid To].[All]" allUniqueName="[Doctor Dimension].[Valid To].[All]" dimensionUniqueName="[Doctor Dimension]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Medicine Dimension].[Medicine Buying Price]" caption="Medicine Buying Price" attribute="1" defaultMemberUniqueName="[Medicine Dimension].[Medicine Buying Price].[All]" allUniqueName="[Medicine Dimension].[Medicine Buying Price].[All]" dimensionUniqueName="[Medicine Dimension]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Medicine Dimension].[Medicine Code]" caption="Medicine Code" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Medicine Dimension].[Medicine Code].[All]" allUniqueName="[Medicine Dimension].[Medicine Code].[All]" dimensionUniqueName="[Medicine Dimension]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Medicine Dimension].[Medicine Expired Date]" caption="Medicine Expired Date" attribute="1" defaultMemberUniqueName="[Medicine Dimension].[Medicine Expired Date].[All]" allUniqueName="[Medicine Dimension].[Medicine Expired Date].[All]" dimensionUniqueName="[Medicine Dimension]" displayFolder="" count="0" unbalanced="0"/>
@@ -7321,65 +7269,34 @@
     <cacheHierarchy uniqueName="[Staff Dimension].[Staff ID]" caption="Staff ID" attribute="1" defaultMemberUniqueName="[Staff Dimension].[Staff ID].[All]" allUniqueName="[Staff Dimension].[Staff ID].[All]" dimensionUniqueName="[Staff Dimension]" displayFolder="" count="2" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
+        <fieldUsage x="0"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Staff Dimension].[Staff Name]" caption="Staff Name" attribute="1" defaultMemberUniqueName="[Staff Dimension].[Staff Name].[All]" allUniqueName="[Staff Dimension].[Staff Name].[All]" dimensionUniqueName="[Staff Dimension]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Staff Dimension].[Staff Salary]" caption="Staff Salary" attribute="1" defaultMemberUniqueName="[Staff Dimension].[Staff Salary].[All]" allUniqueName="[Staff Dimension].[Staff Salary].[All]" dimensionUniqueName="[Staff Dimension]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Staff Dimension].[Valid From]" caption="Valid From" attribute="1" defaultMemberUniqueName="[Staff Dimension].[Valid From].[All]" allUniqueName="[Staff Dimension].[Valid From].[All]" dimensionUniqueName="[Staff Dimension]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Staff Dimension].[Valid To]" caption="Valid To" attribute="1" defaultMemberUniqueName="[Staff Dimension].[Valid To].[All]" allUniqueName="[Staff Dimension].[Valid To].[All]" dimensionUniqueName="[Staff Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Treatment Dimension].[Treatment Code]" caption="Treatment Code" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Treatment Dimension].[Treatment Code].[All]" allUniqueName="[Treatment Dimension].[Treatment Code].[All]" dimensionUniqueName="[Treatment Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Treatment Dimension].[Treatment ID]" caption="Treatment ID" attribute="1" defaultMemberUniqueName="[Treatment Dimension].[Treatment ID].[All]" allUniqueName="[Treatment Dimension].[Treatment ID].[All]" dimensionUniqueName="[Treatment Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Treatment Dimension].[Treatment Name]" caption="Treatment Name" attribute="1" defaultMemberUniqueName="[Treatment Dimension].[Treatment Name].[All]" allUniqueName="[Treatment Dimension].[Treatment Name].[All]" dimensionUniqueName="[Treatment Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Treatment Dimension].[Treatment Price]" caption="Treatment Price" attribute="1" defaultMemberUniqueName="[Treatment Dimension].[Treatment Price].[All]" allUniqueName="[Treatment Dimension].[Treatment Price].[All]" dimensionUniqueName="[Treatment Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Treatment Dimension].[Valid From]" caption="Valid From" attribute="1" defaultMemberUniqueName="[Treatment Dimension].[Valid From].[All]" allUniqueName="[Treatment Dimension].[Valid From].[All]" dimensionUniqueName="[Treatment Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Treatment Dimension].[Valid To]" caption="Valid To" attribute="1" defaultMemberUniqueName="[Treatment Dimension].[Valid To].[All]" allUniqueName="[Treatment Dimension].[Valid To].[All]" dimensionUniqueName="[Treatment Dimension]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Measures].[Total Purchase Cost]" caption="Total Purchase Cost" measure="1" displayFolder="" measureGroup="Purchase Fact" count="0" oneField="1">
       <fieldsUsage count="1">
-        <fieldUsage x="0"/>
+        <fieldUsage x="1"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Purchase Fact Count]" caption="Purchase Fact Count" measure="1" displayFolder="" measureGroup="Purchase Fact" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Total Sales Earning]" caption="Total Sales Earning" measure="1" displayFolder="" measureGroup="Sales Fact" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Total Medicine Sold]" caption="Total Medicine Sold" measure="1" displayFolder="" measureGroup="Sales Fact" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Sales Fact Count]" caption="Sales Fact Count" measure="1" displayFolder="" measureGroup="Sales Fact" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Total Service Earning]" caption="Total Service Earning" measure="1" displayFolder="" measureGroup="Service Fact" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Total Doctors]" caption="Total Doctors" measure="1" displayFolder="" measureGroup="Service Fact" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Service Fact Count]" caption="Service Fact Count" measure="1" displayFolder="" measureGroup="Service Fact" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Total Subscription Earning]" caption="Total Subscription Earning" measure="1" displayFolder="" measureGroup="Subscription Fact" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Total Subscriber Count]" caption="Total Subscriber Count" measure="1" displayFolder="" measureGroup="Subscription Fact" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Subscription Fact Count]" caption="Subscription Fact Count" measure="1" displayFolder="" measureGroup="Subscription Fact" count="0"/>
   </cacheHierarchies>
   <kpis count="0"/>
-  <dimensions count="8">
-    <dimension name="Benefit Dimension" uniqueName="[Benefit Dimension]" caption="Benefit Dimension"/>
-    <dimension name="Customer Dimension" uniqueName="[Customer Dimension]" caption="Customer Dimension"/>
+  <dimensions count="4">
     <dimension name="Distributor Dimension" uniqueName="[Distributor Dimension]" caption="Distributor Dimension"/>
-    <dimension name="Doctor Dimension" uniqueName="[Doctor Dimension]" caption="Doctor Dimension"/>
     <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
     <dimension name="Medicine Dimension" uniqueName="[Medicine Dimension]" caption="Medicine Dimension"/>
     <dimension name="Staff Dimension" uniqueName="[Staff Dimension]" caption="Staff Dimension"/>
-    <dimension name="Treatment Dimension" uniqueName="[Treatment Dimension]" caption="Treatment Dimension"/>
   </dimensions>
-  <measureGroups count="4">
+  <measureGroups count="1">
     <measureGroup name="Purchase Fact" caption="Purchase Fact"/>
-    <measureGroup name="Sales Fact" caption="Sales Fact"/>
-    <measureGroup name="Service Fact" caption="Service Fact"/>
-    <measureGroup name="Subscription Fact" caption="Subscription Fact"/>
   </measureGroups>
-  <maps count="12">
+  <maps count="3">
+    <map measureGroup="0" dimension="0"/>
     <map measureGroup="0" dimension="2"/>
-    <map measureGroup="0" dimension="5"/>
-    <map measureGroup="0" dimension="6"/>
-    <map measureGroup="1" dimension="1"/>
-    <map measureGroup="1" dimension="5"/>
-    <map measureGroup="1" dimension="6"/>
-    <map measureGroup="2" dimension="1"/>
-    <map measureGroup="2" dimension="3"/>
-    <map measureGroup="2" dimension="7"/>
-    <map measureGroup="3" dimension="0"/>
-    <map measureGroup="3" dimension="1"/>
-    <map measureGroup="3" dimension="6"/>
+    <map measureGroup="0" dimension="3"/>
   </maps>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -7390,20 +7307,20 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Jeremy Loa" refreshedDate="44815.789446990741" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{FD4107B5-9775-4E07-A97C-8380856D8DD6}">
-  <cacheSource type="external" connectionId="1"/>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Jeremy Loa" refreshedDate="44817.736254398151" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{3E3FE721-B253-4A19-AF2C-149E477711AF}">
+  <cacheSource type="external" connectionId="5"/>
   <cacheFields count="3">
-    <cacheField name="[Measures].[Total Subscription Earning]" caption="Total Subscription Earning" numFmtId="0" hierarchy="52" level="32767"/>
+    <cacheField name="[Measures].[Total Subscriber Count]" caption="Total Subscriber Count" numFmtId="0" hierarchy="20" level="32767"/>
+    <cacheField name="[Measures].[Total Subscription Earning]" caption="Total Subscription Earning" numFmtId="0" hierarchy="19" level="32767"/>
     <cacheField name="[Customer Dimension].[Customer Gender].[Customer Gender]" caption="Customer Gender" numFmtId="0" hierarchy="8" level="1">
       <sharedItems count="2">
         <s v="[Customer Dimension].[Customer Gender].&amp;[F]" c="F"/>
         <s v="[Customer Dimension].[Customer Gender].&amp;[M]" c="M"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Measures].[Total Subscriber Count]" caption="Total Subscriber Count" numFmtId="0" hierarchy="53" level="32767"/>
   </cacheFields>
-  <cacheHierarchies count="55">
-    <cacheHierarchy uniqueName="[Benefit Dimension].[Benefit Code]" caption="Benefit Code" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Benefit Dimension].[Benefit Code].[All]" allUniqueName="[Benefit Dimension].[Benefit Code].[All]" dimensionUniqueName="[Benefit Dimension]" displayFolder="" count="2" unbalanced="0"/>
+  <cacheHierarchies count="22">
+    <cacheHierarchy uniqueName="[Benefit Dimension].[Benefit Code]" caption="Benefit Code" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Benefit Dimension].[Benefit Code].[All]" allUniqueName="[Benefit Dimension].[Benefit Code].[All]" dimensionUniqueName="[Benefit Dimension]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Benefit Dimension].[Benefit ID]" caption="Benefit ID" attribute="1" defaultMemberUniqueName="[Benefit Dimension].[Benefit ID].[All]" allUniqueName="[Benefit Dimension].[Benefit ID].[All]" dimensionUniqueName="[Benefit Dimension]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Benefit Dimension].[Benefit Name]" caption="Benefit Name" attribute="1" defaultMemberUniqueName="[Benefit Dimension].[Benefit Name].[All]" allUniqueName="[Benefit Dimension].[Benefit Name].[All]" dimensionUniqueName="[Benefit Dimension]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Benefit Dimension].[Benefit Price]" caption="Benefit Price" attribute="1" defaultMemberUniqueName="[Benefit Dimension].[Benefit Price].[All]" allUniqueName="[Benefit Dimension].[Benefit Price].[All]" dimensionUniqueName="[Benefit Dimension]" displayFolder="" count="0" unbalanced="0"/>
@@ -7414,94 +7331,45 @@
     <cacheHierarchy uniqueName="[Customer Dimension].[Customer Gender]" caption="Customer Gender" attribute="1" defaultMemberUniqueName="[Customer Dimension].[Customer Gender].[All]" allUniqueName="[Customer Dimension].[Customer Gender].[All]" dimensionUniqueName="[Customer Dimension]" displayFolder="" count="2" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
+        <fieldUsage x="2"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Customer Dimension].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[Customer Dimension].[Customer ID].[All]" allUniqueName="[Customer Dimension].[Customer ID].[All]" dimensionUniqueName="[Customer Dimension]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Customer Dimension].[Customer Name]" caption="Customer Name" attribute="1" defaultMemberUniqueName="[Customer Dimension].[Customer Name].[All]" allUniqueName="[Customer Dimension].[Customer Name].[All]" dimensionUniqueName="[Customer Dimension]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Distributor Dimension].[Distributor Address]" caption="Distributor Address" attribute="1" defaultMemberUniqueName="[Distributor Dimension].[Distributor Address].[All]" allUniqueName="[Distributor Dimension].[Distributor Address].[All]" dimensionUniqueName="[Distributor Dimension]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Distributor Dimension].[Distributor Code]" caption="Distributor Code" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Distributor Dimension].[Distributor Code].[All]" allUniqueName="[Distributor Dimension].[Distributor Code].[All]" dimensionUniqueName="[Distributor Dimension]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Distributor Dimension].[Distributor ID]" caption="Distributor ID" attribute="1" defaultMemberUniqueName="[Distributor Dimension].[Distributor ID].[All]" allUniqueName="[Distributor Dimension].[Distributor ID].[All]" dimensionUniqueName="[Distributor Dimension]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Distributor Dimension].[Distributor Name]" caption="Distributor Name" attribute="1" defaultMemberUniqueName="[Distributor Dimension].[Distributor Name].[All]" allUniqueName="[Distributor Dimension].[Distributor Name].[All]" dimensionUniqueName="[Distributor Dimension]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Distributor Dimension].[Distributor Phone]" caption="Distributor Phone" attribute="1" defaultMemberUniqueName="[Distributor Dimension].[Distributor Phone].[All]" allUniqueName="[Distributor Dimension].[Distributor Phone].[All]" dimensionUniqueName="[Distributor Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Doctor Dimension].[Doctor Address]" caption="Doctor Address" attribute="1" defaultMemberUniqueName="[Doctor Dimension].[Doctor Address].[All]" allUniqueName="[Doctor Dimension].[Doctor Address].[All]" dimensionUniqueName="[Doctor Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Doctor Dimension].[Doctor Code]" caption="Doctor Code" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Doctor Dimension].[Doctor Code].[All]" allUniqueName="[Doctor Dimension].[Doctor Code].[All]" dimensionUniqueName="[Doctor Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Doctor Dimension].[Doctor DOB]" caption="Doctor DOB" attribute="1" defaultMemberUniqueName="[Doctor Dimension].[Doctor DOB].[All]" allUniqueName="[Doctor Dimension].[Doctor DOB].[All]" dimensionUniqueName="[Doctor Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Doctor Dimension].[Doctor ID]" caption="Doctor ID" attribute="1" defaultMemberUniqueName="[Doctor Dimension].[Doctor ID].[All]" allUniqueName="[Doctor Dimension].[Doctor ID].[All]" dimensionUniqueName="[Doctor Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Doctor Dimension].[Doctor Name]" caption="Doctor Name" attribute="1" defaultMemberUniqueName="[Doctor Dimension].[Doctor Name].[All]" allUniqueName="[Doctor Dimension].[Doctor Name].[All]" dimensionUniqueName="[Doctor Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Doctor Dimension].[Doctor Salary]" caption="Doctor Salary" attribute="1" defaultMemberUniqueName="[Doctor Dimension].[Doctor Salary].[All]" allUniqueName="[Doctor Dimension].[Doctor Salary].[All]" dimensionUniqueName="[Doctor Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Doctor Dimension].[Valid From]" caption="Valid From" attribute="1" defaultMemberUniqueName="[Doctor Dimension].[Valid From].[All]" allUniqueName="[Doctor Dimension].[Valid From].[All]" dimensionUniqueName="[Doctor Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Doctor Dimension].[Valid To]" caption="Valid To" attribute="1" defaultMemberUniqueName="[Doctor Dimension].[Valid To].[All]" allUniqueName="[Doctor Dimension].[Valid To].[All]" dimensionUniqueName="[Doctor Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Medicine Dimension].[Medicine Buying Price]" caption="Medicine Buying Price" attribute="1" defaultMemberUniqueName="[Medicine Dimension].[Medicine Buying Price].[All]" allUniqueName="[Medicine Dimension].[Medicine Buying Price].[All]" dimensionUniqueName="[Medicine Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Medicine Dimension].[Medicine Code]" caption="Medicine Code" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Medicine Dimension].[Medicine Code].[All]" allUniqueName="[Medicine Dimension].[Medicine Code].[All]" dimensionUniqueName="[Medicine Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Medicine Dimension].[Medicine Expired Date]" caption="Medicine Expired Date" attribute="1" defaultMemberUniqueName="[Medicine Dimension].[Medicine Expired Date].[All]" allUniqueName="[Medicine Dimension].[Medicine Expired Date].[All]" dimensionUniqueName="[Medicine Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Medicine Dimension].[Medicine ID]" caption="Medicine ID" attribute="1" defaultMemberUniqueName="[Medicine Dimension].[Medicine ID].[All]" allUniqueName="[Medicine Dimension].[Medicine ID].[All]" dimensionUniqueName="[Medicine Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Medicine Dimension].[Medicine Name]" caption="Medicine Name" attribute="1" defaultMemberUniqueName="[Medicine Dimension].[Medicine Name].[All]" allUniqueName="[Medicine Dimension].[Medicine Name].[All]" dimensionUniqueName="[Medicine Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Medicine Dimension].[Medicine Selling Price]" caption="Medicine Selling Price" attribute="1" defaultMemberUniqueName="[Medicine Dimension].[Medicine Selling Price].[All]" allUniqueName="[Medicine Dimension].[Medicine Selling Price].[All]" dimensionUniqueName="[Medicine Dimension]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Customer Dimension].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[Customer Dimension].[Customer ID].[All]" allUniqueName="[Customer Dimension].[Customer ID].[All]" dimensionUniqueName="[Customer Dimension]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Customer Dimension].[Customer Name]" caption="Customer Name" attribute="1" defaultMemberUniqueName="[Customer Dimension].[Customer Name].[All]" allUniqueName="[Customer Dimension].[Customer Name].[All]" dimensionUniqueName="[Customer Dimension]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Staff Dimension].[Staff Address]" caption="Staff Address" attribute="1" defaultMemberUniqueName="[Staff Dimension].[Staff Address].[All]" allUniqueName="[Staff Dimension].[Staff Address].[All]" dimensionUniqueName="[Staff Dimension]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Staff Dimension].[Staff Code]" caption="Staff Code" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Staff Dimension].[Staff Code].[All]" allUniqueName="[Staff Dimension].[Staff Code].[All]" dimensionUniqueName="[Staff Dimension]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Staff Dimension].[Staff DOB]" caption="Staff DOB" attribute="1" defaultMemberUniqueName="[Staff Dimension].[Staff DOB].[All]" allUniqueName="[Staff Dimension].[Staff DOB].[All]" dimensionUniqueName="[Staff Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Staff Dimension].[Staff ID]" caption="Staff ID" attribute="1" defaultMemberUniqueName="[Staff Dimension].[Staff ID].[All]" allUniqueName="[Staff Dimension].[Staff ID].[All]" dimensionUniqueName="[Staff Dimension]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Staff Dimension].[Staff ID]" caption="Staff ID" attribute="1" defaultMemberUniqueName="[Staff Dimension].[Staff ID].[All]" allUniqueName="[Staff Dimension].[Staff ID].[All]" dimensionUniqueName="[Staff Dimension]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Staff Dimension].[Staff Name]" caption="Staff Name" attribute="1" defaultMemberUniqueName="[Staff Dimension].[Staff Name].[All]" allUniqueName="[Staff Dimension].[Staff Name].[All]" dimensionUniqueName="[Staff Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Staff Dimension].[Staff Salary]" caption="Staff Salary" attribute="1" defaultMemberUniqueName="[Staff Dimension].[Staff Salary].[All]" allUniqueName="[Staff Dimension].[Staff Salary].[All]" dimensionUniqueName="[Staff Dimension]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Staff Dimension].[Staff Salary]" caption="Staff Salary" attribute="1" defaultMemberUniqueName="[Staff Dimension].[Staff Salary].[All]" allUniqueName="[Staff Dimension].[Staff Salary].[All]" dimensionUniqueName="[Staff Dimension]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Staff Dimension].[Valid From]" caption="Valid From" attribute="1" defaultMemberUniqueName="[Staff Dimension].[Valid From].[All]" allUniqueName="[Staff Dimension].[Valid From].[All]" dimensionUniqueName="[Staff Dimension]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Staff Dimension].[Valid To]" caption="Valid To" attribute="1" defaultMemberUniqueName="[Staff Dimension].[Valid To].[All]" allUniqueName="[Staff Dimension].[Valid To].[All]" dimensionUniqueName="[Staff Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Treatment Dimension].[Treatment Code]" caption="Treatment Code" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Treatment Dimension].[Treatment Code].[All]" allUniqueName="[Treatment Dimension].[Treatment Code].[All]" dimensionUniqueName="[Treatment Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Treatment Dimension].[Treatment ID]" caption="Treatment ID" attribute="1" defaultMemberUniqueName="[Treatment Dimension].[Treatment ID].[All]" allUniqueName="[Treatment Dimension].[Treatment ID].[All]" dimensionUniqueName="[Treatment Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Treatment Dimension].[Treatment Name]" caption="Treatment Name" attribute="1" defaultMemberUniqueName="[Treatment Dimension].[Treatment Name].[All]" allUniqueName="[Treatment Dimension].[Treatment Name].[All]" dimensionUniqueName="[Treatment Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Treatment Dimension].[Treatment Price]" caption="Treatment Price" attribute="1" defaultMemberUniqueName="[Treatment Dimension].[Treatment Price].[All]" allUniqueName="[Treatment Dimension].[Treatment Price].[All]" dimensionUniqueName="[Treatment Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Treatment Dimension].[Valid From]" caption="Valid From" attribute="1" defaultMemberUniqueName="[Treatment Dimension].[Valid From].[All]" allUniqueName="[Treatment Dimension].[Valid From].[All]" dimensionUniqueName="[Treatment Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Treatment Dimension].[Valid To]" caption="Valid To" attribute="1" defaultMemberUniqueName="[Treatment Dimension].[Valid To].[All]" allUniqueName="[Treatment Dimension].[Valid To].[All]" dimensionUniqueName="[Treatment Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Total Purchase Cost]" caption="Total Purchase Cost" measure="1" displayFolder="" measureGroup="Purchase Fact" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Purchase Fact Count]" caption="Purchase Fact Count" measure="1" displayFolder="" measureGroup="Purchase Fact" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Total Sales Earning]" caption="Total Sales Earning" measure="1" displayFolder="" measureGroup="Sales Fact" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Total Medicine Sold]" caption="Total Medicine Sold" measure="1" displayFolder="" measureGroup="Sales Fact" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Sales Fact Count]" caption="Sales Fact Count" measure="1" displayFolder="" measureGroup="Sales Fact" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Total Service Earning]" caption="Total Service Earning" measure="1" displayFolder="" measureGroup="Service Fact" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Total Doctors]" caption="Total Doctors" measure="1" displayFolder="" measureGroup="Service Fact" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Service Fact Count]" caption="Service Fact Count" measure="1" displayFolder="" measureGroup="Service Fact" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Total Subscription Earning]" caption="Total Subscription Earning" measure="1" displayFolder="" measureGroup="Subscription Fact" count="0" oneField="1">
       <fieldsUsage count="1">
-        <fieldUsage x="0"/>
+        <fieldUsage x="1"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Total Subscriber Count]" caption="Total Subscriber Count" measure="1" displayFolder="" measureGroup="Subscription Fact" count="0" oneField="1">
       <fieldsUsage count="1">
-        <fieldUsage x="2"/>
+        <fieldUsage x="0"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Subscription Fact Count]" caption="Subscription Fact Count" measure="1" displayFolder="" measureGroup="Subscription Fact" count="0"/>
   </cacheHierarchies>
   <kpis count="0"/>
-  <dimensions count="8">
+  <dimensions count="4">
     <dimension name="Benefit Dimension" uniqueName="[Benefit Dimension]" caption="Benefit Dimension"/>
     <dimension name="Customer Dimension" uniqueName="[Customer Dimension]" caption="Customer Dimension"/>
-    <dimension name="Distributor Dimension" uniqueName="[Distributor Dimension]" caption="Distributor Dimension"/>
-    <dimension name="Doctor Dimension" uniqueName="[Doctor Dimension]" caption="Doctor Dimension"/>
     <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Medicine Dimension" uniqueName="[Medicine Dimension]" caption="Medicine Dimension"/>
     <dimension name="Staff Dimension" uniqueName="[Staff Dimension]" caption="Staff Dimension"/>
-    <dimension name="Treatment Dimension" uniqueName="[Treatment Dimension]" caption="Treatment Dimension"/>
   </dimensions>
-  <measureGroups count="4">
-    <measureGroup name="Purchase Fact" caption="Purchase Fact"/>
-    <measureGroup name="Sales Fact" caption="Sales Fact"/>
-    <measureGroup name="Service Fact" caption="Service Fact"/>
+  <measureGroups count="1">
     <measureGroup name="Subscription Fact" caption="Subscription Fact"/>
   </measureGroups>
-  <maps count="12">
-    <map measureGroup="0" dimension="2"/>
-    <map measureGroup="0" dimension="5"/>
-    <map measureGroup="0" dimension="6"/>
-    <map measureGroup="1" dimension="1"/>
-    <map measureGroup="1" dimension="5"/>
-    <map measureGroup="1" dimension="6"/>
-    <map measureGroup="2" dimension="1"/>
-    <map measureGroup="2" dimension="3"/>
-    <map measureGroup="2" dimension="7"/>
-    <map measureGroup="3" dimension="0"/>
-    <map measureGroup="3" dimension="1"/>
-    <map measureGroup="3" dimension="6"/>
+  <maps count="3">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="0" dimension="3"/>
   </maps>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -7512,12 +7380,12 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Jeremy Loa" refreshedDate="44815.790108680558" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{80BF14C1-7F23-4468-BBA4-E91363CE7630}">
-  <cacheSource type="external" connectionId="1"/>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Jeremy Loa" refreshedDate="44817.73656759259" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{5BF92A1C-C66F-4A2C-9987-2EF916B696CA}">
+  <cacheSource type="external" connectionId="4"/>
   <cacheFields count="3">
-    <cacheField name="[Measures].[Total Service Earning]" caption="Total Service Earning" numFmtId="0" hierarchy="49" level="32767"/>
-    <cacheField name="[Measures].[Total Doctors]" caption="Total Doctors" numFmtId="0" hierarchy="50" level="32767"/>
-    <cacheField name="[Treatment Dimension].[Treatment Name].[Treatment Name]" caption="Treatment Name" numFmtId="0" hierarchy="40" level="1">
+    <cacheField name="[Measures].[Total Service Earning]" caption="Total Service Earning" numFmtId="0" hierarchy="19" level="32767"/>
+    <cacheField name="[Measures].[Total Doctors]" caption="Total Doctors" numFmtId="0" hierarchy="20" level="32767"/>
+    <cacheField name="[Treatment Dimension].[Treatment Name].[Treatment Name]" caption="Treatment Name" numFmtId="0" hierarchy="15" level="1">
       <sharedItems count="1000">
         <s v="[Treatment Dimension].[Treatment Name].&amp;[Treatment 1]" c="Treatment 1"/>
         <s v="[Treatment Dimension].[Treatment Name].&amp;[Treatment 10]" c="Treatment 10"/>
@@ -8522,23 +8390,12 @@
       </sharedItems>
     </cacheField>
   </cacheFields>
-  <cacheHierarchies count="55">
-    <cacheHierarchy uniqueName="[Benefit Dimension].[Benefit Code]" caption="Benefit Code" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Benefit Dimension].[Benefit Code].[All]" allUniqueName="[Benefit Dimension].[Benefit Code].[All]" dimensionUniqueName="[Benefit Dimension]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Benefit Dimension].[Benefit ID]" caption="Benefit ID" attribute="1" defaultMemberUniqueName="[Benefit Dimension].[Benefit ID].[All]" allUniqueName="[Benefit Dimension].[Benefit ID].[All]" dimensionUniqueName="[Benefit Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Benefit Dimension].[Benefit Name]" caption="Benefit Name" attribute="1" defaultMemberUniqueName="[Benefit Dimension].[Benefit Name].[All]" allUniqueName="[Benefit Dimension].[Benefit Name].[All]" dimensionUniqueName="[Benefit Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Benefit Dimension].[Benefit Price]" caption="Benefit Price" attribute="1" defaultMemberUniqueName="[Benefit Dimension].[Benefit Price].[All]" allUniqueName="[Benefit Dimension].[Benefit Price].[All]" dimensionUniqueName="[Benefit Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Benefit Dimension].[Valid From]" caption="Valid From" attribute="1" defaultMemberUniqueName="[Benefit Dimension].[Valid From].[All]" allUniqueName="[Benefit Dimension].[Valid From].[All]" dimensionUniqueName="[Benefit Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Benefit Dimension].[Valid To]" caption="Valid To" attribute="1" defaultMemberUniqueName="[Benefit Dimension].[Valid To].[All]" allUniqueName="[Benefit Dimension].[Valid To].[All]" dimensionUniqueName="[Benefit Dimension]" displayFolder="" count="0" unbalanced="0"/>
+  <cacheHierarchies count="22">
     <cacheHierarchy uniqueName="[Customer Dimension].[Customer Address]" caption="Customer Address" attribute="1" defaultMemberUniqueName="[Customer Dimension].[Customer Address].[All]" allUniqueName="[Customer Dimension].[Customer Address].[All]" dimensionUniqueName="[Customer Dimension]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Customer Dimension].[Customer Code]" caption="Customer Code" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Customer Dimension].[Customer Code].[All]" allUniqueName="[Customer Dimension].[Customer Code].[All]" dimensionUniqueName="[Customer Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Customer Dimension].[Customer Gender]" caption="Customer Gender" attribute="1" defaultMemberUniqueName="[Customer Dimension].[Customer Gender].[All]" allUniqueName="[Customer Dimension].[Customer Gender].[All]" dimensionUniqueName="[Customer Dimension]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Customer Dimension].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[Customer Dimension].[Customer ID].[All]" allUniqueName="[Customer Dimension].[Customer ID].[All]" dimensionUniqueName="[Customer Dimension]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Customer Dimension].[Customer Name]" caption="Customer Name" attribute="1" defaultMemberUniqueName="[Customer Dimension].[Customer Name].[All]" allUniqueName="[Customer Dimension].[Customer Name].[All]" dimensionUniqueName="[Customer Dimension]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Distributor Dimension].[Distributor Address]" caption="Distributor Address" attribute="1" defaultMemberUniqueName="[Distributor Dimension].[Distributor Address].[All]" allUniqueName="[Distributor Dimension].[Distributor Address].[All]" dimensionUniqueName="[Distributor Dimension]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Distributor Dimension].[Distributor Code]" caption="Distributor Code" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Distributor Dimension].[Distributor Code].[All]" allUniqueName="[Distributor Dimension].[Distributor Code].[All]" dimensionUniqueName="[Distributor Dimension]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Distributor Dimension].[Distributor ID]" caption="Distributor ID" attribute="1" defaultMemberUniqueName="[Distributor Dimension].[Distributor ID].[All]" allUniqueName="[Distributor Dimension].[Distributor ID].[All]" dimensionUniqueName="[Distributor Dimension]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Distributor Dimension].[Distributor Name]" caption="Distributor Name" attribute="1" defaultMemberUniqueName="[Distributor Dimension].[Distributor Name].[All]" allUniqueName="[Distributor Dimension].[Distributor Name].[All]" dimensionUniqueName="[Distributor Dimension]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Distributor Dimension].[Distributor Phone]" caption="Distributor Phone" attribute="1" defaultMemberUniqueName="[Distributor Dimension].[Distributor Phone].[All]" allUniqueName="[Distributor Dimension].[Distributor Phone].[All]" dimensionUniqueName="[Distributor Dimension]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Customer Dimension].[Customer Gender]" caption="Customer Gender" attribute="1" defaultMemberUniqueName="[Customer Dimension].[Customer Gender].[All]" allUniqueName="[Customer Dimension].[Customer Gender].[All]" dimensionUniqueName="[Customer Dimension]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Customer Dimension].[Customer ID]" caption="Customer ID" attribute="1" defaultMemberUniqueName="[Customer Dimension].[Customer ID].[All]" allUniqueName="[Customer Dimension].[Customer ID].[All]" dimensionUniqueName="[Customer Dimension]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Customer Dimension].[Customer Name]" caption="Customer Name" attribute="1" defaultMemberUniqueName="[Customer Dimension].[Customer Name].[All]" allUniqueName="[Customer Dimension].[Customer Name].[All]" dimensionUniqueName="[Customer Dimension]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Doctor Dimension].[Doctor Address]" caption="Doctor Address" attribute="1" defaultMemberUniqueName="[Doctor Dimension].[Doctor Address].[All]" allUniqueName="[Doctor Dimension].[Doctor Address].[All]" dimensionUniqueName="[Doctor Dimension]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Doctor Dimension].[Doctor Code]" caption="Doctor Code" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Doctor Dimension].[Doctor Code].[All]" allUniqueName="[Doctor Dimension].[Doctor Code].[All]" dimensionUniqueName="[Doctor Dimension]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Doctor Dimension].[Doctor DOB]" caption="Doctor DOB" attribute="1" defaultMemberUniqueName="[Doctor Dimension].[Doctor DOB].[All]" allUniqueName="[Doctor Dimension].[Doctor DOB].[All]" dimensionUniqueName="[Doctor Dimension]" displayFolder="" count="0" unbalanced="0"/>
@@ -8547,22 +8404,8 @@
     <cacheHierarchy uniqueName="[Doctor Dimension].[Doctor Salary]" caption="Doctor Salary" attribute="1" defaultMemberUniqueName="[Doctor Dimension].[Doctor Salary].[All]" allUniqueName="[Doctor Dimension].[Doctor Salary].[All]" dimensionUniqueName="[Doctor Dimension]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Doctor Dimension].[Valid From]" caption="Valid From" attribute="1" defaultMemberUniqueName="[Doctor Dimension].[Valid From].[All]" allUniqueName="[Doctor Dimension].[Valid From].[All]" dimensionUniqueName="[Doctor Dimension]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Doctor Dimension].[Valid To]" caption="Valid To" attribute="1" defaultMemberUniqueName="[Doctor Dimension].[Valid To].[All]" allUniqueName="[Doctor Dimension].[Valid To].[All]" dimensionUniqueName="[Doctor Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Medicine Dimension].[Medicine Buying Price]" caption="Medicine Buying Price" attribute="1" defaultMemberUniqueName="[Medicine Dimension].[Medicine Buying Price].[All]" allUniqueName="[Medicine Dimension].[Medicine Buying Price].[All]" dimensionUniqueName="[Medicine Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Medicine Dimension].[Medicine Code]" caption="Medicine Code" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Medicine Dimension].[Medicine Code].[All]" allUniqueName="[Medicine Dimension].[Medicine Code].[All]" dimensionUniqueName="[Medicine Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Medicine Dimension].[Medicine Expired Date]" caption="Medicine Expired Date" attribute="1" defaultMemberUniqueName="[Medicine Dimension].[Medicine Expired Date].[All]" allUniqueName="[Medicine Dimension].[Medicine Expired Date].[All]" dimensionUniqueName="[Medicine Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Medicine Dimension].[Medicine ID]" caption="Medicine ID" attribute="1" defaultMemberUniqueName="[Medicine Dimension].[Medicine ID].[All]" allUniqueName="[Medicine Dimension].[Medicine ID].[All]" dimensionUniqueName="[Medicine Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Medicine Dimension].[Medicine Name]" caption="Medicine Name" attribute="1" defaultMemberUniqueName="[Medicine Dimension].[Medicine Name].[All]" allUniqueName="[Medicine Dimension].[Medicine Name].[All]" dimensionUniqueName="[Medicine Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Medicine Dimension].[Medicine Selling Price]" caption="Medicine Selling Price" attribute="1" defaultMemberUniqueName="[Medicine Dimension].[Medicine Selling Price].[All]" allUniqueName="[Medicine Dimension].[Medicine Selling Price].[All]" dimensionUniqueName="[Medicine Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Staff Dimension].[Staff Address]" caption="Staff Address" attribute="1" defaultMemberUniqueName="[Staff Dimension].[Staff Address].[All]" allUniqueName="[Staff Dimension].[Staff Address].[All]" dimensionUniqueName="[Staff Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Staff Dimension].[Staff Code]" caption="Staff Code" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Staff Dimension].[Staff Code].[All]" allUniqueName="[Staff Dimension].[Staff Code].[All]" dimensionUniqueName="[Staff Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Staff Dimension].[Staff DOB]" caption="Staff DOB" attribute="1" defaultMemberUniqueName="[Staff Dimension].[Staff DOB].[All]" allUniqueName="[Staff Dimension].[Staff DOB].[All]" dimensionUniqueName="[Staff Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Staff Dimension].[Staff ID]" caption="Staff ID" attribute="1" defaultMemberUniqueName="[Staff Dimension].[Staff ID].[All]" allUniqueName="[Staff Dimension].[Staff ID].[All]" dimensionUniqueName="[Staff Dimension]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Staff Dimension].[Staff Name]" caption="Staff Name" attribute="1" defaultMemberUniqueName="[Staff Dimension].[Staff Name].[All]" allUniqueName="[Staff Dimension].[Staff Name].[All]" dimensionUniqueName="[Staff Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Staff Dimension].[Staff Salary]" caption="Staff Salary" attribute="1" defaultMemberUniqueName="[Staff Dimension].[Staff Salary].[All]" allUniqueName="[Staff Dimension].[Staff Salary].[All]" dimensionUniqueName="[Staff Dimension]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Staff Dimension].[Valid From]" caption="Valid From" attribute="1" defaultMemberUniqueName="[Staff Dimension].[Valid From].[All]" allUniqueName="[Staff Dimension].[Valid From].[All]" dimensionUniqueName="[Staff Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Staff Dimension].[Valid To]" caption="Valid To" attribute="1" defaultMemberUniqueName="[Staff Dimension].[Valid To].[All]" allUniqueName="[Staff Dimension].[Valid To].[All]" dimensionUniqueName="[Staff Dimension]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Treatment Dimension].[Treatment Code]" caption="Treatment Code" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Treatment Dimension].[Treatment Code].[All]" allUniqueName="[Treatment Dimension].[Treatment Code].[All]" dimensionUniqueName="[Treatment Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Treatment Dimension].[Treatment ID]" caption="Treatment ID" attribute="1" defaultMemberUniqueName="[Treatment Dimension].[Treatment ID].[All]" allUniqueName="[Treatment Dimension].[Treatment ID].[All]" dimensionUniqueName="[Treatment Dimension]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Treatment Dimension].[Treatment ID]" caption="Treatment ID" attribute="1" defaultMemberUniqueName="[Treatment Dimension].[Treatment ID].[All]" allUniqueName="[Treatment Dimension].[Treatment ID].[All]" dimensionUniqueName="[Treatment Dimension]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Treatment Dimension].[Treatment Name]" caption="Treatment Name" attribute="1" defaultMemberUniqueName="[Treatment Dimension].[Treatment Name].[All]" allUniqueName="[Treatment Dimension].[Treatment Name].[All]" dimensionUniqueName="[Treatment Dimension]" displayFolder="" count="2" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
@@ -8572,11 +8415,6 @@
     <cacheHierarchy uniqueName="[Treatment Dimension].[Treatment Price]" caption="Treatment Price" attribute="1" defaultMemberUniqueName="[Treatment Dimension].[Treatment Price].[All]" allUniqueName="[Treatment Dimension].[Treatment Price].[All]" dimensionUniqueName="[Treatment Dimension]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Treatment Dimension].[Valid From]" caption="Valid From" attribute="1" defaultMemberUniqueName="[Treatment Dimension].[Valid From].[All]" allUniqueName="[Treatment Dimension].[Valid From].[All]" dimensionUniqueName="[Treatment Dimension]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Treatment Dimension].[Valid To]" caption="Valid To" attribute="1" defaultMemberUniqueName="[Treatment Dimension].[Valid To].[All]" allUniqueName="[Treatment Dimension].[Valid To].[All]" dimensionUniqueName="[Treatment Dimension]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Total Purchase Cost]" caption="Total Purchase Cost" measure="1" displayFolder="" measureGroup="Purchase Fact" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Purchase Fact Count]" caption="Purchase Fact Count" measure="1" displayFolder="" measureGroup="Purchase Fact" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Total Sales Earning]" caption="Total Sales Earning" measure="1" displayFolder="" measureGroup="Sales Fact" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Total Medicine Sold]" caption="Total Medicine Sold" measure="1" displayFolder="" measureGroup="Sales Fact" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Sales Fact Count]" caption="Sales Fact Count" measure="1" displayFolder="" measureGroup="Sales Fact" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Total Service Earning]" caption="Total Service Earning" measure="1" displayFolder="" measureGroup="Service Fact" count="0" oneField="1">
       <fieldsUsage count="1">
         <fieldUsage x="0"/>
@@ -8588,40 +8426,21 @@
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Service Fact Count]" caption="Service Fact Count" measure="1" displayFolder="" measureGroup="Service Fact" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Total Subscription Earning]" caption="Total Subscription Earning" measure="1" displayFolder="" measureGroup="Subscription Fact" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Total Subscriber Count]" caption="Total Subscriber Count" measure="1" displayFolder="" measureGroup="Subscription Fact" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Subscription Fact Count]" caption="Subscription Fact Count" measure="1" displayFolder="" measureGroup="Subscription Fact" count="0"/>
   </cacheHierarchies>
   <kpis count="0"/>
-  <dimensions count="8">
-    <dimension name="Benefit Dimension" uniqueName="[Benefit Dimension]" caption="Benefit Dimension"/>
+  <dimensions count="4">
     <dimension name="Customer Dimension" uniqueName="[Customer Dimension]" caption="Customer Dimension"/>
-    <dimension name="Distributor Dimension" uniqueName="[Distributor Dimension]" caption="Distributor Dimension"/>
     <dimension name="Doctor Dimension" uniqueName="[Doctor Dimension]" caption="Doctor Dimension"/>
     <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Medicine Dimension" uniqueName="[Medicine Dimension]" caption="Medicine Dimension"/>
-    <dimension name="Staff Dimension" uniqueName="[Staff Dimension]" caption="Staff Dimension"/>
     <dimension name="Treatment Dimension" uniqueName="[Treatment Dimension]" caption="Treatment Dimension"/>
   </dimensions>
-  <measureGroups count="4">
-    <measureGroup name="Purchase Fact" caption="Purchase Fact"/>
-    <measureGroup name="Sales Fact" caption="Sales Fact"/>
+  <measureGroups count="1">
     <measureGroup name="Service Fact" caption="Service Fact"/>
-    <measureGroup name="Subscription Fact" caption="Subscription Fact"/>
   </measureGroups>
-  <maps count="12">
-    <map measureGroup="0" dimension="2"/>
-    <map measureGroup="0" dimension="5"/>
-    <map measureGroup="0" dimension="6"/>
-    <map measureGroup="1" dimension="1"/>
-    <map measureGroup="1" dimension="5"/>
-    <map measureGroup="1" dimension="6"/>
-    <map measureGroup="2" dimension="1"/>
-    <map measureGroup="2" dimension="3"/>
-    <map measureGroup="2" dimension="7"/>
-    <map measureGroup="3" dimension="0"/>
-    <map measureGroup="3" dimension="1"/>
-    <map measureGroup="3" dimension="6"/>
+  <maps count="3">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="0" dimension="3"/>
   </maps>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -8632,20 +8451,20 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BD92E0BF-10A0-49B8-ABFA-AAA5719752B5}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Customer Gender" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EBAE02E1-52B3-4CFF-91FF-D82551F64C06}" name="PivotTable3" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Customer Gender" fieldListSortAscending="1">
   <location ref="A1:C4" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
       <items count="2">
         <item x="0"/>
         <item x="1"/>
       </items>
     </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="2"/>
+    <field x="0"/>
   </rowFields>
   <rowItems count="3">
     <i>
@@ -8670,35 +8489,10 @@
     </i>
   </colItems>
   <dataFields count="2">
-    <dataField fld="0" baseField="0" baseItem="0"/>
     <dataField fld="1" baseField="0" baseItem="0"/>
+    <dataField fld="2" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotHierarchies count="55">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
+  <pivotHierarchies count="22">
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -8721,18 +8515,10 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="8"/>
+    <rowHierarchyUsage hierarchyUsage="2"/>
   </rowHierarchiesUsage>
   <colHierarchiesUsage count="1">
     <colHierarchyUsage hierarchyUsage="-2"/>
@@ -8749,10 +8535,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2515365A-F565-4E4E-85A1-81199A039C35}" name="PivotTable1" cacheId="68" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="StaffID" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4C80CE20-66A7-49EB-93A9-3FFBE743FFEC}" name="PivotTable4" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="StaffID" fieldListSortAscending="1">
   <location ref="A1:B1002" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
       <items count="1000">
         <item x="0"/>
@@ -9757,9 +9542,10 @@
         <item x="999"/>
       </items>
     </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="1"/>
+    <field x="0"/>
   </rowFields>
   <rowItems count="1001">
     <i>
@@ -12770,34 +12556,9 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField fld="0" baseField="0" baseItem="0"/>
+    <dataField fld="1" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotHierarchies count="55">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
+  <pivotHierarchies count="21">
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -12819,19 +12580,10 @@
     <pivotHierarchy/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="33"/>
+    <rowHierarchyUsage hierarchyUsage="14"/>
   </rowHierarchiesUsage>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -12845,9 +12597,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{30EDC303-E9F1-4DA8-92ED-68DAF235594B}" name="PivotTable1" cacheId="102" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Customer Gender" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CDD1A642-5B5E-476A-87B7-BA8EA0D46ABC}" name="PivotTable5" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Customer Gender" fieldListSortAscending="1">
   <location ref="A1:C4" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
       <items count="2">
@@ -12855,10 +12608,9 @@
         <item x="1"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="1"/>
+    <field x="2"/>
   </rowFields>
   <rowItems count="3">
     <i>
@@ -12884,9 +12636,9 @@
   </colItems>
   <dataFields count="2">
     <dataField fld="0" baseField="0" baseItem="0"/>
-    <dataField fld="2" baseField="0" baseItem="0"/>
+    <dataField fld="1" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotHierarchies count="55">
+  <pivotHierarchies count="22">
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -12906,39 +12658,6 @@
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
@@ -12962,7 +12681,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CDC78B17-56BC-4A2B-BF29-8D789DD70F7E}" name="PivotTable1" cacheId="127" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Treatment" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B34D8524-1F35-489C-BA3D-3EECFBD662A5}" name="PivotTable6" cacheId="47" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Treatment" fieldListSortAscending="1">
   <location ref="A1:C1002" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -16995,32 +16714,7 @@
     <dataField fld="0" baseField="0" baseItem="0"/>
     <dataField fld="1" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotHierarchies count="55">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
+  <pivotHierarchies count="22">
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -17043,18 +16737,10 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="40"/>
+    <rowHierarchyUsage hierarchyUsage="15"/>
   </rowHierarchiesUsage>
   <colHierarchiesUsage count="1">
     <colHierarchyUsage hierarchyUsage="-2"/>
@@ -17366,18 +17052,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95650AF-78AC-4F4F-BD55-950D7A8EFB3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55DCE16-00B5-4666-A034-F921B62BF31B}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -17430,18 +17116,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA63FC2-26C7-43E0-8BBA-A10CAFE099CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918BE5CA-80EB-4BCF-9BFB-A0A431B9567C}">
   <dimension ref="A1:B1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -25466,16 +25149,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4417AC-B739-4736-A2A8-F35228D6991D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E5C70F-D7E2-43CD-975C-E4238307014E}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -25483,10 +25166,10 @@
         <v>1006</v>
       </c>
       <c r="B1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C1" t="s">
         <v>1008</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -25494,10 +25177,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
+        <v>6102042</v>
+      </c>
+      <c r="C2" s="1">
         <v>333535969727</v>
-      </c>
-      <c r="C2" s="1">
-        <v>6102042</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -25505,10 +25188,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
+        <v>6181862</v>
+      </c>
+      <c r="C3" s="1">
         <v>322297551148</v>
-      </c>
-      <c r="C3" s="1">
-        <v>6181862</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -25516,10 +25199,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
+        <v>12283904</v>
+      </c>
+      <c r="C4" s="1">
         <v>655833520875</v>
-      </c>
-      <c r="C4" s="1">
-        <v>12283904</v>
       </c>
     </row>
   </sheetData>
@@ -25528,16 +25211,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52D8DC4-9C58-4C70-B37C-BE1371833831}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5F9A61-CB17-4F4A-BD55-D5ABD044F88C}">
   <dimension ref="A1:C1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
